--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="603">
   <si>
     <t>spans</t>
   </si>
@@ -1864,6 +1864,10 @@
       </rPr>
       <t>n/</t>
     </r>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2307,7 +2311,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4211,6 +4215,9 @@
       <c r="E63" s="8" t="s">
         <v>600</v>
       </c>
+      <c r="G63" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="23.25" customHeight="1">
       <c r="A64" s="4" t="s">
